--- a/SS_Experiment_Output/AO-7_results.xlsx
+++ b/SS_Experiment_Output/AO-7_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Pederson\Documents\MATLAB\Satellite\Satellite\Project\SS_Experiment_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0741DC-330C-44DD-B90F-7AE2601C2673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B109D-3595-4430-BDE0-C4A3ABB62381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="8250" windowWidth="29040" windowHeight="15840" xr2:uid="{4C26C3E7-F3D7-487B-BFC2-E9E4FBC2D060}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="18">
   <si>
     <t>START</t>
   </si>
@@ -42,9 +42,6 @@
     <t>END</t>
   </si>
   <si>
-    <t>Error ("-" = early)</t>
-  </si>
-  <si>
     <t>3 Months Old</t>
   </si>
   <si>
@@ -79,6 +76,18 @@
   </si>
   <si>
     <t>Elevation Angle</t>
+  </si>
+  <si>
+    <t>Error 1 ("-" = early)</t>
+  </si>
+  <si>
+    <t>Error 2 ("-" = early)</t>
+  </si>
+  <si>
+    <t>Error 3 ("-" = early)</t>
+  </si>
+  <si>
+    <t>Window Length 3</t>
   </si>
 </sst>
 </file>
@@ -531,18 +540,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422472CC-0320-4F97-90B0-733A9858B3B3}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="22.1796875" customWidth="1"/>
+    <col min="10" max="10" width="21.6328125" customWidth="1"/>
+    <col min="11" max="11" width="19.08984375" customWidth="1"/>
+    <col min="13" max="13" width="17.7265625" customWidth="1"/>
+    <col min="14" max="14" width="17.81640625" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="8">
         <v>101.3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -568,24 +585,27 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>44454.438773148147</v>
@@ -607,6 +627,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
       <c r="M3" s="6" t="str">
         <f>TEXT(C3-B3,"h:mm:ss")</f>
         <v>0:10:55</v>
@@ -622,7 +643,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>59.162512100999997</v>
@@ -644,10 +665,11 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>-79.192576891000002</v>
@@ -669,10 +691,11 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1458974.3885999999</v>
@@ -694,10 +717,11 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>25.410599999999999</v>
@@ -719,14 +743,16 @@
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -750,19 +776,20 @@
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="M9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="O9" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>44454.438657407409</v>
@@ -787,8 +814,12 @@
         <v>-0:00:10</v>
       </c>
       <c r="J10" s="7" t="str">
-        <f>IF(D3-D10&lt;0,(TEXT(ABS(D3-D10),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(C3-C10,"h:mm:ss"))))</f>
+        <f>IF(D3-D10&lt;0,(TEXT(ABS(D3-D10),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(D3-D10,"h:mm:ss"))))</f>
         <v>-0:00:10</v>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f>IF(F3-F10&lt;0,(TEXT(ABS(F3-F10),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(F3-F10,"h:mm:ss"))))</f>
+        <v>-0:00:05</v>
       </c>
       <c r="M10" s="6" t="str">
         <f>TEXT(C10-B10,"h:mm:ss")</f>
@@ -805,7 +836,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>59.345035635999999</v>
@@ -830,7 +861,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>-79.094547316000003</v>
@@ -855,7 +886,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1459582.1952</v>
@@ -880,7 +911,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>25.038499999999999</v>
@@ -906,7 +937,7 @@
     <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -934,18 +965,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="M16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="O16" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
         <v>44454.438310185185</v>
@@ -970,7 +1001,11 @@
         <v>-0:00:40</v>
       </c>
       <c r="J17" s="7" t="str">
-        <f>IF(D3-D17&lt;0,(TEXT(ABS(D3-D17),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(C3-C17,"h:mm:ss"))))</f>
+        <f>IF(D3-D17&lt;0,(TEXT(ABS(D3-D17),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(D3-D17,"h:mm:ss"))))</f>
+        <v>-0:00:40</v>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f>IF(F3-F17&lt;0,(TEXT(ABS(F3-F17),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(F3-F17,"h:mm:ss"))))</f>
         <v>-0:00:40</v>
       </c>
       <c r="M17" s="6" t="str">
@@ -988,7 +1023,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>59.188668575999998</v>
@@ -1010,10 +1045,11 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>-79.267365533000003</v>
@@ -1035,10 +1071,11 @@
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>1458953.8506</v>
@@ -1060,10 +1097,11 @@
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>25.396100000000001</v>
@@ -1085,14 +1123,16 @@
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
@@ -1116,19 +1156,20 @@
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
       <c r="M23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="O23" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
         <v>44454.438657407409</v>
@@ -1153,7 +1194,11 @@
         <v>-0:00:10</v>
       </c>
       <c r="J24" s="7" t="str">
-        <f>IF(D3-D24&lt;0,(TEXT(ABS(D3-D24),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(C3-C24,"h:mm:ss"))))</f>
+        <f>IF(D3-D24&lt;0,(TEXT(ABS(D3-D24),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(D3-D24,"h:mm:ss"))))</f>
+        <v>-0:00:20</v>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f>IF(F3-F24&lt;0,(TEXT(ABS(F3-F24),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(F3-F24,"h:mm:ss"))))</f>
         <v>-0:00:10</v>
       </c>
       <c r="M24" s="6" t="str">
@@ -1171,7 +1216,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>59.245120966999998</v>
@@ -1193,10 +1238,11 @@
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>-79.676415023999994</v>
@@ -1218,10 +1264,11 @@
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>1459406.2848</v>
@@ -1243,10 +1290,11 @@
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>25.482199999999999</v>
@@ -1268,14 +1316,16 @@
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
@@ -1299,19 +1349,20 @@
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="M30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="O30" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1">
         <v>44454.438831018517</v>
@@ -1336,8 +1387,12 @@
         <v>0:00:05</v>
       </c>
       <c r="J31" s="7" t="str">
-        <f>IF(D3-D31&lt;0,(TEXT(ABS(D3-D31),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(C3-C31,"h:mm:ss"))))</f>
-        <v>-0:00:00</v>
+        <f>IF(D3-D31&lt;0,(TEXT(ABS(D3-D31),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(D3-D31,"h:mm:ss"))))</f>
+        <v>-0:00:15</v>
+      </c>
+      <c r="K31" s="7" t="str">
+        <f>IF(F3-F31&lt;0,(TEXT(ABS(F3-F31),"h:mm:ss")),(_xlfn.CONCAT("-",TEXT(F3-F31,"h:mm:ss"))))</f>
+        <v>0:00:10</v>
       </c>
       <c r="M31" s="6" t="str">
         <f>TEXT(C31-B31,"h:mm:ss")</f>
@@ -1354,7 +1409,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32">
         <v>59.352700669999997</v>
@@ -1379,7 +1434,7 @@
     </row>
     <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>-80.192824576999996</v>
@@ -1404,7 +1459,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>1458927.0662</v>
@@ -1429,7 +1484,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>25.492899999999999</v>
